--- a/[ASO] Romero/(FINAL)/Práctica.xlsx
+++ b/[ASO] Romero/(FINAL)/Práctica.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Round Robin" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>Programa 1</t>
   </si>
@@ -48,12 +47,21 @@
   <si>
     <t>Trespuesta</t>
   </si>
+  <si>
+    <t>For x3</t>
+  </si>
+  <si>
+    <t>End For</t>
+  </si>
+  <si>
+    <t>NO ES POSIBLE ROUND ROBIN CON ESTA MECÁNICA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +100,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -108,24 +124,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,34 +164,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,11 +698,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="178673536"/>
-        <c:axId val="178675072"/>
+        <c:axId val="187435264"/>
+        <c:axId val="187445248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178673536"/>
+        <c:axId val="187435264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178675072"/>
+        <c:crossAx val="187445248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -689,7 +719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178675072"/>
+        <c:axId val="187445248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -712,14 +742,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178673536"/>
+        <c:crossAx val="187435264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -743,7 +772,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1220,11 +1248,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="179327360"/>
-        <c:axId val="179328896"/>
+        <c:axId val="188071296"/>
+        <c:axId val="188082432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="179327360"/>
+        <c:axId val="188071296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179328896"/>
+        <c:crossAx val="188082432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1241,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179328896"/>
+        <c:axId val="188082432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,14 +1292,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179327360"/>
+        <c:crossAx val="188071296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1295,7 +1322,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1347,12 +1373,13 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1477,7 +1504,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00FF00"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln w="28575">
               <a:noFill/>
@@ -1544,6 +1574,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
@@ -1551,7 +1586,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -1561,7 +1596,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
@@ -1571,10 +1606,20 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Round Robin'!$B$1:$D$1</c:f>
@@ -1686,10 +1731,23 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00FF00"/>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Round Robin'!$B$1:$D$1</c:f>
@@ -1737,11 +1795,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="212170624"/>
-        <c:axId val="212172160"/>
+        <c:axId val="188562432"/>
+        <c:axId val="188572416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="212170624"/>
+        <c:axId val="188562432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212172160"/>
+        <c:crossAx val="188572416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1758,7 +1816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212172160"/>
+        <c:axId val="188572416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,7 +1846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212170624"/>
+        <c:crossAx val="188562432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1903,8 +1961,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571498</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
@@ -2560,15 +2618,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2579,29 +2637,33 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12">
         <v>5</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="10">
@@ -2614,30 +2676,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>50</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="10">
@@ -2649,8 +2711,11 @@
       <c r="D7" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2667,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2749,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2701,18 +2766,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
         <f>B4+B7</f>
         <v>200</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="14">
         <f>C4+C7</f>
         <v>130</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="14">
         <f>D4+D7</f>
         <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
